--- a/var_info/indv_panel_var_info/GCOE_CN_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/GCOE_CN_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A585D8A5-7716-8047-9BD1-1B00104C4AD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B4C9D-EB15-004A-A310-181E16997864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="8" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dates!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$F$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="48">
   <si>
     <t>pro</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -655,16 +658,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1020,24 +1018,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BAB111-51F0-2346-A5FD-2C9FD2F9DABE}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="17" customWidth="1"/>
+    <col min="16" max="16" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1081,71 +1076,80 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>2009</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>2010</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>11</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1155,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1171,7 @@
     <col min="6" max="6" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1211,11 +1215,14 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2">
@@ -1230,12 +1237,12 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3">
@@ -1250,18 +1257,9 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1270,158 +1268,162 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="16.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="4" customWidth="1"/>
-    <col min="6" max="9" width="13.6640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="14" width="10.83203125" style="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>2009</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>2009</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>2010</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>2010</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1430,21 +1432,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="51.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1488,46 +1488,49 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>2009</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>2010</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1538,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A85E1B4-6E48-9643-B927-0FB77A3D9FCF}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1550,7 +1553,7 @@
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1594,6 +1597,9 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1606,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77550137-10F1-6F4E-BB91-25F96ED9BCCF}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
